--- a/gene_ontology_analysis/Final Tables mRNA.xlsx
+++ b/gene_ontology_analysis/Final Tables mRNA.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beyzakaya/Desktop/temporalHiC/gene_ontology_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A895E8-0ED3-664F-8909-62DE09E6FCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0F6756-D519-7D4C-BF08-85A5B4C34277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="2520" windowWidth="32440" windowHeight="22660" xr2:uid="{1DBA07BB-CF96-E448-80A6-1B8F2B570FB2}"/>
+    <workbookView xWindow="7340" yWindow="4600" windowWidth="32440" windowHeight="22660" activeTab="3" xr2:uid="{1DBA07BB-CF96-E448-80A6-1B8F2B570FB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Best-Worst Correlated" sheetId="1" r:id="rId1"/>
+    <sheet name="Temporal Cluster" sheetId="2" r:id="rId2"/>
+    <sheet name="TAD boundary" sheetId="3" r:id="rId3"/>
+    <sheet name="A-B Compartment" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
   <si>
     <t>Gene</t>
   </si>
@@ -282,6 +285,153 @@
   </si>
   <si>
     <t>Essential cellular processes, housekeeping functions</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Genes</t>
+  </si>
+  <si>
+    <t>Biological Functions/Pathways</t>
+  </si>
+  <si>
+    <t>Biological Significance</t>
+  </si>
+  <si>
+    <t>Cluster 0 (Upregulated Genes)</t>
+  </si>
+  <si>
+    <t>TTF-1, Claudin 1, GUCY1A2, sGC, HMBS, IGFBP3, HPRT, TBP, ABCG2, EGFR, NME3, VIM, PRIM2, ADAMTSL2, GATA-6, CD38, N-Cadherin, FOXF2, FGF18, ABCD1, LRP2, EPHA7</t>
+  </si>
+  <si>
+    <t>- Cell differentiation and development (e.g., FOXF2, GATA-6) - Tissue remodeling and adhesion (e.g., Claudin 1, N-Cadherin) - Signal transduction and immune response (e.g., EGFR, VIM, FGF18) - ECM interactions (e.g., ADAMTSL2)</t>
+  </si>
+  <si>
+    <t>- Upregulated genes in Cluster 0 suggest active cellular processes, such as cell differentiation, extracellular matrix remodeling, and signal transduction. - Many of these genes are involved in developmental stages, immune responses, and repair mechanisms.</t>
+  </si>
+  <si>
+    <t>Cluster 1 (Stable Genes)</t>
+  </si>
+  <si>
+    <t>Integrin subunit alpha 8, SFTP-D, AGER, Claudin5, ABCA3, Hist1h1b, YWHAZ, INMT, Hist1h2ab, TNC, TFRC, VEGF, PPIA, P-63</t>
+  </si>
+  <si>
+    <t>- Cell-cell adhesion (e.g., Integrin subunit alpha 8, Claudin5) - ECM stability (e.g., TNC, Hist1h1b) - Signal transduction and cell survival (e.g., VEGF, P-63) - Lung surfactant production (e.g., SFTP-D, ABCA3)</t>
+  </si>
+  <si>
+    <t>- Stable genes in Cluster 1 play essential roles in maintaining tissue integrity, structure, and homeostasis. - Many of these genes are involved in lung function, cell adhesion, and immune responses (e.g., AGER, TFRC, and P-63). - These genes may be consistently expressed in tissues that require stable regulation of these processes, such as lung and epithelial tissues.</t>
+  </si>
+  <si>
+    <t>Cluster 2 (Downregulated Genes)</t>
+  </si>
+  <si>
+    <t>Thy1, TGFB1, MCPt4, MMP-3, HPGDS, KCNMA1, AMACR, Shisa3, MGAT4A, MMP7, THTPA, F13A1, RAGE, E2F8</t>
+  </si>
+  <si>
+    <t>- Fibrosis regulation (e.g., TGFB1, MMP-3) - Inflammation and immune response (e.g., MCPt4, HPGDS) - Tissue remodeling (e.g., MMP7, MMP3) - Apoptosis regulation (e.g., AMACR, E2F8)</t>
+  </si>
+  <si>
+    <t>- Downregulated genes in Cluster 2 suggest genes involved in cell cycle regulation, immune responses, and tissue remodeling. - The downregulation may indicate a shift away from tissue repair or fibrotic processes, especially in contexts like wound healing or immune activation. - Many genes in this cluster are involved in inflammation and fibrosis, suggesting they may be repressed during certain tissue homeostasis phases.</t>
+  </si>
+  <si>
+    <t>Strong Boundary Genes</t>
+  </si>
+  <si>
+    <t>Weak Boundary Genes</t>
+  </si>
+  <si>
+    <t>Gene List</t>
+  </si>
+  <si>
+    <t>NME3, Integrin alpha 8, KCNMA1, Claudin 1, FGF18, ABCG2, FOXF2</t>
+  </si>
+  <si>
+    <t>IGFBP3, P-63, EPHA7, LRP2, TGFB1, HMBS, GUCY1A2, AGER, Claudin5, EGFR, AMACR, E2F8, ABCD1, CD38, RAGE, ADAMTSL2, ABCA3, VIM, MMP-3, etc.</t>
+  </si>
+  <si>
+    <t>Chromatin Organization</t>
+  </si>
+  <si>
+    <t>Stable, rigid chromatin; anchor chromatin interactions</t>
+  </si>
+  <si>
+    <t>Dynamic chromatin; fluctuates with cellular needs</t>
+  </si>
+  <si>
+    <t>Biological Role</t>
+  </si>
+  <si>
+    <t>Cell adhesion, growth factor signaling, structural integrity</t>
+  </si>
+  <si>
+    <t>Inflammation, tissue remodeling, immune response</t>
+  </si>
+  <si>
+    <t>Expression Pattern</t>
+  </si>
+  <si>
+    <t>Stable across tissues; tightly regulated</t>
+  </si>
+  <si>
+    <t>Variable expression, often tissue-specific</t>
+  </si>
+  <si>
+    <t>Tissue Involvement</t>
+  </si>
+  <si>
+    <t>Stable tissues (e.g., epithelial, muscle)</t>
+  </si>
+  <si>
+    <t>Dynamic tissues (e.g., immune, inflammatory, repair)</t>
+  </si>
+  <si>
+    <t>Clinical Relevance</t>
+  </si>
+  <si>
+    <t>Tissue structure maintenance; linked to cancer and fibrosis</t>
+  </si>
+  <si>
+    <t>Involved in inflammation, fibrosis, wound healing</t>
+  </si>
+  <si>
+    <t>Compartment Cluster</t>
+  </si>
+  <si>
+    <t>Compartment A</t>
+  </si>
+  <si>
+    <t>AMACR, CD38, Claudin 1, EGFR, EPHA7, F13A1, GUCY1A2, Igfbp3, Kcnma1, Lrp2, MGAT4A, MMP-3, MMP7, P-63, tbp, tfrc</t>
+  </si>
+  <si>
+    <t>- Cell signaling and adhesion (e.g., CD38, EGFR) - Metabolic regulation (e.g., AMACR, GUCY1A2) - Immune response (e.g., EPHA7)</t>
+  </si>
+  <si>
+    <t>Compartment B</t>
+  </si>
+  <si>
+    <t>ABCA3, ABCD1, ABCG2, ADAMTSL2, AGER, Claudin5, E2F8, FGF18, FOXF2, GATA-6, Hist1h1b, hmbs, HPGDS, integrin subunit alpha 8, MCPt4, NME3, RAGE, SFTP-D, TTF-1, hprt, TGFB1, THTPA, VIM</t>
+  </si>
+  <si>
+    <t>- Lipid and fatty acid transport (e.g., ABCA3, ABCD1) - Cell differentiation and development (e.g., FOXF2, GATA-6) - ECM remodeling (e.g., ADAMTSL2, RAGE)</t>
+  </si>
+  <si>
+    <t>Compartment A and B (Both)</t>
+  </si>
+  <si>
+    <t>Hist1h2ab, INMT, N-Cadherin, PRIM2, Shisa3, Thy1, Tnc, Vegf, ppia, ywhaz</t>
+  </si>
+  <si>
+    <t>- Gene regulation and differentiation (e.g., N-Cadherin, Thy1) - Cellular signaling and repair (e.g., VEGF, Tnc) - Immune response and inflammation (e.g., Shisa3)</t>
+  </si>
+  <si>
+    <t>Genes in Compartment A play significant roles in metabolic regulation, immune response, and tissue adhesion. Many are involved in cellular signaling, apoptosis, and repair mechanisms.</t>
+  </si>
+  <si>
+    <t>Genes in Compartment B are involved in processes like lipid transport, cell differentiation, and extracellular matrix remodeling. These genes are likely essential for cellular structure maintenance and differentiation.</t>
+  </si>
+  <si>
+    <t>These genes suggest regulatory roles in both compartments, particularly in tissue repair, immune responses, and cellular differentiation. Their presence in both compartments suggests they could play a role in coordinating processes across different tissue states.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +548,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FD3443-AF54-7244-922C-D2176A8D6A0B}">
   <dimension ref="F6:T55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F23"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1320,4 +1476,255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEBD916-3009-1C49-910E-459A02DF8FDC}">
+  <dimension ref="D14:G17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="4:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="D15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="255" x14ac:dyDescent="0.2">
+      <c r="D17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C49845-74DD-CA47-BC9C-6F9699C6794B}">
+  <dimension ref="E7:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="E8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="E10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="E11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="E13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1055B-711B-6F4F-B03B-8FA76A7E3BED}">
+  <dimension ref="E7:H10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="39.83203125" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="E7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="E8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="E9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="E10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>